--- a/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班_追記.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班_追記.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2369,14 +2369,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2387,17 +2399,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2411,31 +2426,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8979,25 +8979,6 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>所属研究室を選択する際に下ボタンを押すことで研究室の一覧を表示し選択できるようにする。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
             <a:t>所属研究室は　　　　　　　　　　　　　</a:t>
           </a:r>
           <a:r>
@@ -9015,211 +8996,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>新井研究室　　　　五百井</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>研究室</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　加藤</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>研究室</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　　　　久保</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>研究室</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　　鴻巣</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>研究室</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　　　　下田</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>研究室</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　　下村</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>研究室</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　　　　</a:t>
+            <a:t>新井研究室　　　　五百井研究室　加藤研究室　　　　久保研究室　　鴻巣研究室　　　　下田研究室　　下村研究室　　　　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -9269,41 +9046,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>武田</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>研究室</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　　　　</a:t>
+            <a:t>武田研究室　　　　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -9353,75 +9096,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>谷本</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>研究室</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　　　　遠山</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>研究室</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　　　</a:t>
+            <a:t>谷本研究室　　　　遠山研究室　　　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -9471,24 +9146,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>矢吹</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>研究室　　　　　以上の</a:t>
+            <a:t>矢吹研究室　　　　　以上の</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
@@ -9524,6 +9182,76 @@
             </a:rPr>
             <a:t>項目を研究室の一覧とする</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" marR="0" lvl="0" indent="-228600" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>所属研究室を選択する際に下ボタンを押すことで研究室の一覧を表示し選択できるようにする。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
             <a:ln>
               <a:noFill/>
@@ -13403,7 +13131,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -15794,17 +15522,17 @@
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="106"/>
-      <c r="G7" s="105"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="103"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="104" t="s">
+      <c r="I7" s="102" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="105"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="103"/>
       <c r="L7" s="2"/>
       <c r="M7" s="53"/>
       <c r="N7" s="53"/>
@@ -15819,18 +15547,18 @@
       <c r="E8" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="104" t="s">
+      <c r="F8" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="105"/>
+      <c r="G8" s="103"/>
       <c r="H8" s="26"/>
       <c r="I8" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="104" t="s">
+      <c r="J8" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="105"/>
+      <c r="K8" s="103"/>
       <c r="L8" s="2"/>
       <c r="M8" s="54"/>
       <c r="N8" s="53"/>
@@ -15845,18 +15573,18 @@
       <c r="E9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="117" t="s">
+      <c r="F9" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="118"/>
+      <c r="G9" s="120"/>
       <c r="H9" s="26"/>
       <c r="I9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="117" t="s">
+      <c r="J9" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="118"/>
+      <c r="K9" s="120"/>
       <c r="L9" s="2"/>
       <c r="M9" s="30"/>
       <c r="N9" s="26"/>
@@ -15869,10 +15597,10 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="118"/>
+      <c r="G10" s="120"/>
       <c r="H10" s="26"/>
       <c r="I10" s="63"/>
       <c r="J10" s="121" t="s">
@@ -15891,14 +15619,14 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
-      <c r="F11" s="117" t="s">
+      <c r="F11" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="118"/>
+      <c r="G11" s="120"/>
       <c r="H11" s="26"/>
       <c r="I11" s="64"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
       <c r="L11" s="2"/>
       <c r="M11" s="30"/>
       <c r="N11" s="26"/>
@@ -15913,14 +15641,14 @@
       <c r="E12" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="117" t="s">
+      <c r="F12" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="118"/>
+      <c r="G12" s="120"/>
       <c r="H12" s="26"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
       <c r="L12" s="2"/>
       <c r="M12" s="30"/>
       <c r="N12" s="26"/>
@@ -15939,8 +15667,8 @@
       <c r="G13" s="122"/>
       <c r="H13" s="26"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
       <c r="L13" s="2"/>
       <c r="M13" s="30"/>
       <c r="N13" s="26"/>
@@ -15953,12 +15681,12 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="64"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
       <c r="H14" s="26"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
       <c r="L14" s="2"/>
       <c r="M14" s="30"/>
       <c r="N14" s="26"/>
@@ -15971,12 +15699,12 @@
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
       <c r="H15" s="2"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
       <c r="L15" s="2"/>
       <c r="M15" s="30"/>
       <c r="N15" s="26"/>
@@ -15989,12 +15717,12 @@
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
       <c r="H16" s="2"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
       <c r="L16" s="2"/>
       <c r="M16" s="30"/>
       <c r="N16" s="26"/>
@@ -16399,6 +16127,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="J9:K9"/>
@@ -16414,14 +16150,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18703,20 +18431,20 @@
       <c r="D7" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="104" t="s">
+      <c r="F7" s="103"/>
+      <c r="G7" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="104" t="s">
+      <c r="H7" s="103"/>
+      <c r="I7" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="105"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="103"/>
       <c r="M7" s="56" t="s">
         <v>23</v>
       </c>
@@ -18736,20 +18464,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="99"/>
-      <c r="G8" s="98" t="s">
+      <c r="F8" s="101"/>
+      <c r="G8" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="99"/>
-      <c r="I8" s="98" t="s">
+      <c r="H8" s="101"/>
+      <c r="I8" s="99" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="100"/>
       <c r="K8" s="100"/>
-      <c r="L8" s="99"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="23" t="s">
         <v>31</v>
       </c>
@@ -18769,18 +18497,18 @@
         <f t="shared" ref="D9:D20" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="98" t="s">
+      <c r="E9" s="99"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="98" t="s">
+      <c r="H9" s="101"/>
+      <c r="I9" s="99" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="100"/>
       <c r="K9" s="100"/>
-      <c r="L9" s="99"/>
+      <c r="L9" s="101"/>
       <c r="M9" s="23" t="s">
         <v>32</v>
       </c>
@@ -18800,18 +18528,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="98" t="s">
+      <c r="E10" s="99"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="98" t="s">
+      <c r="H10" s="101"/>
+      <c r="I10" s="99" t="s">
         <v>28</v>
       </c>
       <c r="J10" s="100"/>
       <c r="K10" s="100"/>
-      <c r="L10" s="99"/>
+      <c r="L10" s="101"/>
       <c r="M10" s="23" t="s">
         <v>33</v>
       </c>
@@ -18831,18 +18559,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="98"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="98" t="s">
+      <c r="E11" s="99"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="99"/>
-      <c r="I11" s="98" t="s">
+      <c r="H11" s="101"/>
+      <c r="I11" s="99" t="s">
         <v>87</v>
       </c>
       <c r="J11" s="100"/>
       <c r="K11" s="100"/>
-      <c r="L11" s="99"/>
+      <c r="L11" s="101"/>
       <c r="M11" s="23" t="s">
         <v>103</v>
       </c>
@@ -18862,20 +18590,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="99"/>
-      <c r="G12" s="98" t="s">
+      <c r="F12" s="101"/>
+      <c r="G12" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="99"/>
-      <c r="I12" s="98" t="s">
+      <c r="H12" s="101"/>
+      <c r="I12" s="99" t="s">
         <v>81</v>
       </c>
       <c r="J12" s="100"/>
       <c r="K12" s="100"/>
-      <c r="L12" s="99"/>
+      <c r="L12" s="101"/>
       <c r="M12" s="23" t="s">
         <v>31</v>
       </c>
@@ -18895,18 +18623,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="98" t="s">
+      <c r="E13" s="99"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="98" t="s">
+      <c r="H13" s="101"/>
+      <c r="I13" s="99" t="s">
         <v>108</v>
       </c>
       <c r="J13" s="100"/>
       <c r="K13" s="100"/>
-      <c r="L13" s="99"/>
+      <c r="L13" s="101"/>
       <c r="M13" s="23" t="s">
         <v>31</v>
       </c>
@@ -18926,18 +18654,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="98"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="98" t="s">
+      <c r="E14" s="99"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="99"/>
-      <c r="I14" s="98" t="s">
+      <c r="H14" s="101"/>
+      <c r="I14" s="99" t="s">
         <v>84</v>
       </c>
       <c r="J14" s="100"/>
       <c r="K14" s="100"/>
-      <c r="L14" s="99"/>
+      <c r="L14" s="101"/>
       <c r="M14" s="23" t="s">
         <v>33</v>
       </c>
@@ -18957,18 +18685,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="98" t="s">
+      <c r="E15" s="99"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="99"/>
-      <c r="I15" s="98" t="s">
+      <c r="H15" s="101"/>
+      <c r="I15" s="99" t="s">
         <v>116</v>
       </c>
       <c r="J15" s="100"/>
       <c r="K15" s="100"/>
-      <c r="L15" s="99"/>
+      <c r="L15" s="101"/>
       <c r="M15" s="23" t="s">
         <v>33</v>
       </c>
@@ -18988,20 +18716,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="98" t="s">
+      <c r="F16" s="101"/>
+      <c r="G16" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="99"/>
-      <c r="I16" s="98" t="s">
+      <c r="H16" s="101"/>
+      <c r="I16" s="99" t="s">
         <v>117</v>
       </c>
       <c r="J16" s="100"/>
       <c r="K16" s="100"/>
-      <c r="L16" s="99"/>
+      <c r="L16" s="101"/>
       <c r="M16" s="23" t="s">
         <v>109</v>
       </c>
@@ -19021,20 +18749,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="98" t="s">
+      <c r="F17" s="101"/>
+      <c r="G17" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="99"/>
-      <c r="I17" s="98" t="s">
+      <c r="H17" s="101"/>
+      <c r="I17" s="99" t="s">
         <v>88</v>
       </c>
       <c r="J17" s="100"/>
       <c r="K17" s="100"/>
-      <c r="L17" s="99"/>
+      <c r="L17" s="101"/>
       <c r="M17" s="23" t="s">
         <v>103</v>
       </c>
@@ -19054,20 +18782,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="98" t="s">
+      <c r="F18" s="101"/>
+      <c r="G18" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="99"/>
-      <c r="I18" s="98" t="s">
+      <c r="H18" s="101"/>
+      <c r="I18" s="99" t="s">
         <v>113</v>
       </c>
       <c r="J18" s="100"/>
       <c r="K18" s="100"/>
-      <c r="L18" s="99"/>
+      <c r="L18" s="101"/>
       <c r="M18" s="23" t="s">
         <v>33</v>
       </c>
@@ -19090,16 +18818,16 @@
         <v>120</v>
       </c>
       <c r="F19" s="58"/>
-      <c r="G19" s="101" t="s">
+      <c r="G19" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="102"/>
-      <c r="I19" s="101" t="s">
+      <c r="H19" s="106"/>
+      <c r="I19" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="102"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="106"/>
       <c r="M19" s="23" t="s">
         <v>31</v>
       </c>
@@ -19121,16 +18849,16 @@
       </c>
       <c r="E20" s="57"/>
       <c r="F20" s="58"/>
-      <c r="G20" s="101" t="s">
+      <c r="G20" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="102"/>
-      <c r="I20" s="101" t="s">
+      <c r="H20" s="106"/>
+      <c r="I20" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="102"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="106"/>
       <c r="M20" s="23" t="s">
         <v>32</v>
       </c>
@@ -19147,14 +18875,14 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
       <c r="M21" s="24"/>
       <c r="N21" s="25"/>
       <c r="O21" s="32"/>
@@ -19439,38 +19167,6 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="46">
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G12:H12"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
@@ -19485,6 +19181,38 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -19630,21 +19358,21 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="104" t="s">
+      <c r="D6" s="108"/>
+      <c r="E6" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="109" t="s">
+      <c r="F6" s="103"/>
+      <c r="G6" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>65</v>
@@ -19656,21 +19384,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="115"/>
-      <c r="E7" s="113" t="s">
+      <c r="D7" s="109"/>
+      <c r="E7" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="114"/>
-      <c r="G7" s="110" t="s">
+      <c r="F7" s="112"/>
+      <c r="G7" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -19680,21 +19408,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="113" t="s">
+      <c r="D8" s="109"/>
+      <c r="E8" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="114"/>
-      <c r="G8" s="110" t="s">
+      <c r="F8" s="112"/>
+      <c r="G8" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -19704,21 +19432,21 @@
     <row r="9" spans="1:16" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="113" t="s">
+      <c r="D9" s="109"/>
+      <c r="E9" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="114"/>
-      <c r="G9" s="111" t="s">
+      <c r="F9" s="112"/>
+      <c r="G9" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -19728,21 +19456,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="109" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="113" t="s">
+      <c r="D10" s="109"/>
+      <c r="E10" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="114"/>
-      <c r="G10" s="110" t="s">
+      <c r="F10" s="112"/>
+      <c r="G10" s="115" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -19752,21 +19480,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="113" t="s">
+      <c r="D11" s="109"/>
+      <c r="E11" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="114"/>
-      <c r="G11" s="110" t="s">
+      <c r="F11" s="112"/>
+      <c r="G11" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -19776,21 +19504,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="113" t="s">
+      <c r="D12" s="109"/>
+      <c r="E12" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="114"/>
-      <c r="G12" s="110" t="s">
+      <c r="F12" s="112"/>
+      <c r="G12" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -19800,15 +19528,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -19818,15 +19546,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>67</v>
@@ -19838,15 +19566,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -20275,13 +20003,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E7:F7"/>
@@ -20298,16 +20029,13 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班_追記.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班_追記.xlsx
@@ -2369,17 +2369,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2390,29 +2396,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2426,16 +2411,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8979,8 +8979,19 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>所属研究室は　　　　　　　　　　　　　</a:t>
+            <a:t>所属研究室は</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
               <a:ln>
@@ -8996,7 +9007,118 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>新井研究室　　　　五百井研究室　加藤研究室　　　　久保研究室　　鴻巣研究室　　　　下田研究室　　下村研究室　　　　</a:t>
+            <a:t>　　新井研究室　　五百井研究室</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　加藤研究室　　久保研究室</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　鴻巣研究室　　下田研究室</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　下村研究室　　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -9021,7 +9143,44 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>研究室　</a:t>
+            <a:t>研究室</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -9046,7 +9205,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>武田研究室　　　　</a:t>
+            <a:t>武田研究室　　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -9071,7 +9230,44 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>研究室　</a:t>
+            <a:t>研究室</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -9096,7 +9292,44 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>谷本研究室　　　　遠山研究室　　　</a:t>
+            <a:t>谷本研究室　　遠山研究室</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -9129,7 +9362,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>　　　　</a:t>
+            <a:t>　　</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
@@ -9146,7 +9379,44 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>矢吹研究室　　　　　以上の</a:t>
+            <a:t>矢吹研究室</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　　以上の</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
@@ -9211,7 +9481,7 @@
             <a:buClrTx/>
             <a:buSzTx/>
             <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
+            <a:buAutoNum type="circleNumDbPlain" startAt="7"/>
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
@@ -9250,7 +9520,7 @@
         <a:p>
           <a:pPr marL="228600" indent="-228600" algn="l">
             <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
+            <a:buAutoNum type="circleNumDbPlain" startAt="7"/>
           </a:pPr>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
             <a:ln>
@@ -15522,17 +15792,17 @@
       <c r="B7" s="16"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="104"/>
-      <c r="G7" s="103"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="105"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="102" t="s">
+      <c r="I7" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="104"/>
-      <c r="K7" s="103"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="105"/>
       <c r="L7" s="2"/>
       <c r="M7" s="53"/>
       <c r="N7" s="53"/>
@@ -15547,18 +15817,18 @@
       <c r="E8" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="102" t="s">
+      <c r="F8" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="103"/>
+      <c r="G8" s="105"/>
       <c r="H8" s="26"/>
       <c r="I8" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="102" t="s">
+      <c r="J8" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="103"/>
+      <c r="K8" s="105"/>
       <c r="L8" s="2"/>
       <c r="M8" s="54"/>
       <c r="N8" s="53"/>
@@ -15573,18 +15843,18 @@
       <c r="E9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="119" t="s">
+      <c r="F9" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="120"/>
+      <c r="G9" s="118"/>
       <c r="H9" s="26"/>
       <c r="I9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="119" t="s">
+      <c r="J9" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="120"/>
+      <c r="K9" s="118"/>
       <c r="L9" s="2"/>
       <c r="M9" s="30"/>
       <c r="N9" s="26"/>
@@ -15597,10 +15867,10 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="119" t="s">
+      <c r="F10" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="120"/>
+      <c r="G10" s="118"/>
       <c r="H10" s="26"/>
       <c r="I10" s="63"/>
       <c r="J10" s="121" t="s">
@@ -15619,14 +15889,14 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="120"/>
+      <c r="G11" s="118"/>
       <c r="H11" s="26"/>
       <c r="I11" s="64"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
       <c r="L11" s="2"/>
       <c r="M11" s="30"/>
       <c r="N11" s="26"/>
@@ -15641,14 +15911,14 @@
       <c r="E12" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="119" t="s">
+      <c r="F12" s="117" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="120"/>
+      <c r="G12" s="118"/>
       <c r="H12" s="26"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
       <c r="L12" s="2"/>
       <c r="M12" s="30"/>
       <c r="N12" s="26"/>
@@ -15667,8 +15937,8 @@
       <c r="G13" s="122"/>
       <c r="H13" s="26"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
       <c r="L13" s="2"/>
       <c r="M13" s="30"/>
       <c r="N13" s="26"/>
@@ -15681,12 +15951,12 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="64"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
       <c r="H14" s="26"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
       <c r="L14" s="2"/>
       <c r="M14" s="30"/>
       <c r="N14" s="26"/>
@@ -15699,12 +15969,12 @@
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
       <c r="H15" s="2"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
       <c r="L15" s="2"/>
       <c r="M15" s="30"/>
       <c r="N15" s="26"/>
@@ -15717,12 +15987,12 @@
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
       <c r="H16" s="2"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
       <c r="L16" s="2"/>
       <c r="M16" s="30"/>
       <c r="N16" s="26"/>
@@ -16127,14 +16397,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="J9:K9"/>
@@ -16150,6 +16412,14 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18431,20 +18701,20 @@
       <c r="D7" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="102" t="s">
+      <c r="F7" s="105"/>
+      <c r="G7" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="103"/>
-      <c r="I7" s="102" t="s">
+      <c r="H7" s="105"/>
+      <c r="I7" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="103"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="105"/>
       <c r="M7" s="56" t="s">
         <v>23</v>
       </c>
@@ -18464,20 +18734,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="101"/>
-      <c r="G8" s="99" t="s">
+      <c r="F8" s="99"/>
+      <c r="G8" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="101"/>
-      <c r="I8" s="99" t="s">
+      <c r="H8" s="99"/>
+      <c r="I8" s="98" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="100"/>
       <c r="K8" s="100"/>
-      <c r="L8" s="101"/>
+      <c r="L8" s="99"/>
       <c r="M8" s="23" t="s">
         <v>31</v>
       </c>
@@ -18497,18 +18767,18 @@
         <f t="shared" ref="D9:D20" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="99" t="s">
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="101"/>
-      <c r="I9" s="99" t="s">
+      <c r="H9" s="99"/>
+      <c r="I9" s="98" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="100"/>
       <c r="K9" s="100"/>
-      <c r="L9" s="101"/>
+      <c r="L9" s="99"/>
       <c r="M9" s="23" t="s">
         <v>32</v>
       </c>
@@ -18528,18 +18798,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="99"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="99" t="s">
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="101"/>
-      <c r="I10" s="99" t="s">
+      <c r="H10" s="99"/>
+      <c r="I10" s="98" t="s">
         <v>28</v>
       </c>
       <c r="J10" s="100"/>
       <c r="K10" s="100"/>
-      <c r="L10" s="101"/>
+      <c r="L10" s="99"/>
       <c r="M10" s="23" t="s">
         <v>33</v>
       </c>
@@ -18559,18 +18829,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="99" t="s">
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="99" t="s">
+      <c r="H11" s="99"/>
+      <c r="I11" s="98" t="s">
         <v>87</v>
       </c>
       <c r="J11" s="100"/>
       <c r="K11" s="100"/>
-      <c r="L11" s="101"/>
+      <c r="L11" s="99"/>
       <c r="M11" s="23" t="s">
         <v>103</v>
       </c>
@@ -18590,20 +18860,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="101"/>
-      <c r="G12" s="99" t="s">
+      <c r="F12" s="99"/>
+      <c r="G12" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="101"/>
-      <c r="I12" s="99" t="s">
+      <c r="H12" s="99"/>
+      <c r="I12" s="98" t="s">
         <v>81</v>
       </c>
       <c r="J12" s="100"/>
       <c r="K12" s="100"/>
-      <c r="L12" s="101"/>
+      <c r="L12" s="99"/>
       <c r="M12" s="23" t="s">
         <v>31</v>
       </c>
@@ -18623,18 +18893,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="99"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="99" t="s">
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="H13" s="101"/>
-      <c r="I13" s="99" t="s">
+      <c r="H13" s="99"/>
+      <c r="I13" s="98" t="s">
         <v>108</v>
       </c>
       <c r="J13" s="100"/>
       <c r="K13" s="100"/>
-      <c r="L13" s="101"/>
+      <c r="L13" s="99"/>
       <c r="M13" s="23" t="s">
         <v>31</v>
       </c>
@@ -18654,18 +18924,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="99"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="99" t="s">
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="101"/>
-      <c r="I14" s="99" t="s">
+      <c r="H14" s="99"/>
+      <c r="I14" s="98" t="s">
         <v>84</v>
       </c>
       <c r="J14" s="100"/>
       <c r="K14" s="100"/>
-      <c r="L14" s="101"/>
+      <c r="L14" s="99"/>
       <c r="M14" s="23" t="s">
         <v>33</v>
       </c>
@@ -18685,18 +18955,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="99"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="99" t="s">
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="101"/>
-      <c r="I15" s="99" t="s">
+      <c r="H15" s="99"/>
+      <c r="I15" s="98" t="s">
         <v>116</v>
       </c>
       <c r="J15" s="100"/>
       <c r="K15" s="100"/>
-      <c r="L15" s="101"/>
+      <c r="L15" s="99"/>
       <c r="M15" s="23" t="s">
         <v>33</v>
       </c>
@@ -18716,20 +18986,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="99" t="s">
+      <c r="E16" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="99" t="s">
+      <c r="F16" s="99"/>
+      <c r="G16" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="101"/>
-      <c r="I16" s="99" t="s">
+      <c r="H16" s="99"/>
+      <c r="I16" s="98" t="s">
         <v>117</v>
       </c>
       <c r="J16" s="100"/>
       <c r="K16" s="100"/>
-      <c r="L16" s="101"/>
+      <c r="L16" s="99"/>
       <c r="M16" s="23" t="s">
         <v>109</v>
       </c>
@@ -18749,20 +19019,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="99" t="s">
+      <c r="E17" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="101"/>
-      <c r="G17" s="99" t="s">
+      <c r="F17" s="99"/>
+      <c r="G17" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="101"/>
-      <c r="I17" s="99" t="s">
+      <c r="H17" s="99"/>
+      <c r="I17" s="98" t="s">
         <v>88</v>
       </c>
       <c r="J17" s="100"/>
       <c r="K17" s="100"/>
-      <c r="L17" s="101"/>
+      <c r="L17" s="99"/>
       <c r="M17" s="23" t="s">
         <v>103</v>
       </c>
@@ -18782,20 +19052,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="99" t="s">
+      <c r="E18" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="101"/>
-      <c r="G18" s="99" t="s">
+      <c r="F18" s="99"/>
+      <c r="G18" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="H18" s="101"/>
-      <c r="I18" s="99" t="s">
+      <c r="H18" s="99"/>
+      <c r="I18" s="98" t="s">
         <v>113</v>
       </c>
       <c r="J18" s="100"/>
       <c r="K18" s="100"/>
-      <c r="L18" s="101"/>
+      <c r="L18" s="99"/>
       <c r="M18" s="23" t="s">
         <v>33</v>
       </c>
@@ -18818,16 +19088,16 @@
         <v>120</v>
       </c>
       <c r="F19" s="58"/>
-      <c r="G19" s="105" t="s">
+      <c r="G19" s="101" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="106"/>
-      <c r="I19" s="105" t="s">
+      <c r="H19" s="102"/>
+      <c r="I19" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="106"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="102"/>
       <c r="M19" s="23" t="s">
         <v>31</v>
       </c>
@@ -18849,16 +19119,16 @@
       </c>
       <c r="E20" s="57"/>
       <c r="F20" s="58"/>
-      <c r="G20" s="105" t="s">
+      <c r="G20" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="106"/>
-      <c r="I20" s="105" t="s">
+      <c r="H20" s="102"/>
+      <c r="I20" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="106"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="102"/>
       <c r="M20" s="23" t="s">
         <v>32</v>
       </c>
@@ -18875,14 +19145,14 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
       <c r="M21" s="24"/>
       <c r="N21" s="25"/>
       <c r="O21" s="32"/>
@@ -19167,6 +19437,38 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="46">
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:L15"/>
@@ -19181,38 +19483,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -19358,21 +19628,21 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="102" t="s">
+      <c r="D6" s="116"/>
+      <c r="E6" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="103"/>
-      <c r="G6" s="114" t="s">
+      <c r="F6" s="105"/>
+      <c r="G6" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>65</v>
@@ -19384,21 +19654,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="111" t="s">
+      <c r="D7" s="115"/>
+      <c r="E7" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="112"/>
-      <c r="G7" s="115" t="s">
+      <c r="F7" s="114"/>
+      <c r="G7" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -19408,21 +19678,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="111" t="s">
+      <c r="D8" s="115"/>
+      <c r="E8" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="112"/>
-      <c r="G8" s="115" t="s">
+      <c r="F8" s="114"/>
+      <c r="G8" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -19432,21 +19702,21 @@
     <row r="9" spans="1:16" ht="25.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="111" t="s">
+      <c r="D9" s="115"/>
+      <c r="E9" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="112"/>
-      <c r="G9" s="116" t="s">
+      <c r="F9" s="114"/>
+      <c r="G9" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -19456,21 +19726,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="111" t="s">
+      <c r="D10" s="115"/>
+      <c r="E10" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="112"/>
-      <c r="G10" s="115" t="s">
+      <c r="F10" s="114"/>
+      <c r="G10" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -19480,21 +19750,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="111" t="s">
+      <c r="D11" s="115"/>
+      <c r="E11" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="115" t="s">
+      <c r="F11" s="114"/>
+      <c r="G11" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -19504,21 +19774,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="111" t="s">
+      <c r="D12" s="115"/>
+      <c r="E12" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="115" t="s">
+      <c r="F12" s="114"/>
+      <c r="G12" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -19528,15 +19798,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -19546,15 +19816,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
         <v>67</v>
@@ -19566,15 +19836,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -20003,16 +20273,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E7:F7"/>
@@ -20029,13 +20296,16 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班_追記.xlsx
+++ b/yabuki-a/PM演習矢吹a/PM演習_外部設計書_矢吹研A班_追記.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Documents\GitHub\pmpractice\yabuki-a\PM演習矢吹a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saito\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10056" windowHeight="4656" tabRatio="732" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10056" windowHeight="4656" tabRatio="732" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_基本" sheetId="13" r:id="rId1"/>
@@ -653,13 +653,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ名称</t>
-    <rPh sb="3" eb="5">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1103,10 +1096,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1576,6 +1565,17 @@
     <t>若月</t>
     <rPh sb="0" eb="2">
       <t>ワカツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2426,16 +2426,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6334,17 +6334,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:ln>
                 <a:noFill/>
@@ -6353,7 +6342,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>とパスワードを入力して下さい。</a:t>
+            <a:t>名前とパスワードを入力して下さい。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6539,7 +6528,7 @@
         <a:p>
           <a:pPr algn="r"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -6547,16 +6536,8 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>名前</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6729,20 +6710,12 @@
             <a:buAutoNum type="circleNumDbPlain"/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>は</a:t>
+            <a:t>名前は</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -8815,20 +8788,12 @@
             <a:buAutoNum type="circleNumDbPlain"/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>は</a:t>
+            <a:t>名前は</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -10146,17 +10111,6 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ID</a:t>
-            </a:r>
-            <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
                 <a:ln>
                   <a:noFill/>
@@ -10165,7 +10119,7 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>とパスワードを入力し、</a:t>
+              <a:t>名前とパスワードを入力し、</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
               <a:ln>
@@ -10610,7 +10564,7 @@
           <a:p>
             <a:pPr algn="r"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -10618,16 +10572,8 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>ID</a:t>
+              <a:t>名前</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -12643,7 +12589,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -12659,7 +12605,7 @@
       <c r="M1" s="37"/>
       <c r="N1" s="37"/>
       <c r="O1" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P1" s="68">
         <v>41795</v>
@@ -12682,7 +12628,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="80" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P2" s="80"/>
       <c r="Q2" s="81"/>
@@ -12731,7 +12677,7 @@
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
       <c r="E5" s="85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="86"/>
       <c r="G5" s="86"/>
@@ -12827,7 +12773,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="88" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E10" s="88"/>
       <c r="F10" s="88"/>
@@ -12887,7 +12833,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="87" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="87"/>
@@ -13004,7 +12950,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="34"/>
       <c r="F19" s="79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="79"/>
       <c r="H19" s="79"/>
@@ -13201,7 +13147,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L29" s="83"/>
       <c r="M29" s="83"/>
@@ -13222,15 +13168,15 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L30" s="71"/>
       <c r="M30" s="71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N30" s="71"/>
       <c r="O30" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P30" s="76"/>
       <c r="Q30" s="39"/>
@@ -13400,7 +13346,7 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
@@ -13440,13 +13386,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N1" s="60" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P1" s="19">
         <v>41795</v>
@@ -13535,10 +13481,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -14192,13 +14138,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N1" s="60" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P1" s="19">
         <v>41795</v>
@@ -14287,10 +14233,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -14944,13 +14890,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N1" s="60" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P1" s="19">
         <v>41795</v>
@@ -15039,10 +14985,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -15656,8 +15602,8 @@
   </sheetPr>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -15696,13 +15642,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P1" s="19">
         <v>41795</v>
@@ -15753,7 +15699,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15793,13 +15739,13 @@
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="104" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F7" s="106"/>
       <c r="G7" s="105"/>
       <c r="H7" s="26"/>
       <c r="I7" s="104" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J7" s="106"/>
       <c r="K7" s="105"/>
@@ -15843,18 +15789,18 @@
       <c r="E9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="117" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="118"/>
+      <c r="F9" s="119" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="120"/>
       <c r="H9" s="26"/>
       <c r="I9" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="117" t="s">
-        <v>96</v>
-      </c>
-      <c r="K9" s="118"/>
+      <c r="J9" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="120"/>
       <c r="L9" s="2"/>
       <c r="M9" s="30"/>
       <c r="N9" s="26"/>
@@ -15867,14 +15813,14 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="117" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="118"/>
+      <c r="F10" s="119" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="120"/>
       <c r="H10" s="26"/>
       <c r="I10" s="63"/>
       <c r="J10" s="121" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K10" s="122"/>
       <c r="L10" s="2"/>
@@ -15889,14 +15835,14 @@
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="28"/>
-      <c r="F11" s="117" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="118"/>
+      <c r="F11" s="119" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="120"/>
       <c r="H11" s="26"/>
       <c r="I11" s="64"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
       <c r="L11" s="2"/>
       <c r="M11" s="30"/>
       <c r="N11" s="26"/>
@@ -15909,16 +15855,16 @@
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="117" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="118"/>
+        <v>61</v>
+      </c>
+      <c r="F12" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="120"/>
       <c r="H12" s="26"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
       <c r="L12" s="2"/>
       <c r="M12" s="30"/>
       <c r="N12" s="26"/>
@@ -15932,13 +15878,13 @@
       <c r="D13" s="27"/>
       <c r="E13" s="63"/>
       <c r="F13" s="121" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G13" s="122"/>
       <c r="H13" s="26"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
       <c r="L13" s="2"/>
       <c r="M13" s="30"/>
       <c r="N13" s="26"/>
@@ -15951,12 +15897,12 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="64"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
       <c r="H14" s="26"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
       <c r="L14" s="2"/>
       <c r="M14" s="30"/>
       <c r="N14" s="26"/>
@@ -15969,12 +15915,12 @@
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
       <c r="H15" s="2"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
       <c r="L15" s="2"/>
       <c r="M15" s="30"/>
       <c r="N15" s="26"/>
@@ -15987,12 +15933,12 @@
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
       <c r="H16" s="2"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
       <c r="L16" s="2"/>
       <c r="M16" s="30"/>
       <c r="N16" s="26"/>
@@ -16412,9 +16358,9 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
@@ -16438,8 +16384,8 @@
   </sheetPr>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AH27" sqref="AH27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -16481,13 +16427,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="67" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P1" s="19">
         <v>41795</v>
@@ -16533,7 +16479,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -16624,7 +16570,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -16684,7 +16630,7 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -17207,13 +17153,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N1" s="62" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="67" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P1" s="19">
         <v>41795</v>
@@ -17244,7 +17190,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -17905,13 +17851,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N1" s="65" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P1" s="19">
         <v>41795</v>
@@ -17942,7 +17888,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -18603,13 +18549,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N1" s="56" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P1" s="19">
         <v>41795</v>
@@ -18637,7 +18583,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>19</v>
@@ -18660,7 +18606,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -18699,7 +18645,7 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E7" s="104" t="s">
         <v>20</v>
@@ -18735,7 +18681,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="98" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F8" s="99"/>
       <c r="G8" s="98" t="s">
@@ -18832,20 +18778,20 @@
       <c r="E11" s="98"/>
       <c r="F11" s="99"/>
       <c r="G11" s="98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" s="99"/>
       <c r="I11" s="98" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11" s="100"/>
       <c r="K11" s="100"/>
       <c r="L11" s="99"/>
       <c r="M11" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O11" s="23" t="s">
         <v>54</v>
@@ -18861,7 +18807,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F12" s="99"/>
       <c r="G12" s="98" t="s">
@@ -18869,7 +18815,7 @@
       </c>
       <c r="H12" s="99"/>
       <c r="I12" s="98" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J12" s="100"/>
       <c r="K12" s="100"/>
@@ -18881,7 +18827,7 @@
         <v>34</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P12" s="9"/>
     </row>
@@ -18896,11 +18842,11 @@
       <c r="E13" s="98"/>
       <c r="F13" s="99"/>
       <c r="G13" s="98" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H13" s="99"/>
       <c r="I13" s="98" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J13" s="100"/>
       <c r="K13" s="100"/>
@@ -18912,7 +18858,7 @@
         <v>36</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P13" s="9"/>
     </row>
@@ -18927,11 +18873,11 @@
       <c r="E14" s="98"/>
       <c r="F14" s="99"/>
       <c r="G14" s="98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="99"/>
       <c r="I14" s="98" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14" s="100"/>
       <c r="K14" s="100"/>
@@ -18958,11 +18904,11 @@
       <c r="E15" s="98"/>
       <c r="F15" s="99"/>
       <c r="G15" s="98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H15" s="99"/>
       <c r="I15" s="98" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J15" s="100"/>
       <c r="K15" s="100"/>
@@ -18987,27 +18933,27 @@
         <v>9</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F16" s="99"/>
       <c r="G16" s="98" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H16" s="99"/>
       <c r="I16" s="98" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J16" s="100"/>
       <c r="K16" s="100"/>
       <c r="L16" s="99"/>
       <c r="M16" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N16" s="23" t="s">
         <v>34</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P16" s="9"/>
     </row>
@@ -19020,27 +18966,27 @@
         <v>10</v>
       </c>
       <c r="E17" s="98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="99"/>
       <c r="G17" s="98" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H17" s="99"/>
       <c r="I17" s="98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J17" s="100"/>
       <c r="K17" s="100"/>
       <c r="L17" s="99"/>
       <c r="M17" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N17" s="23" t="s">
         <v>34</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P17" s="9"/>
     </row>
@@ -19053,15 +18999,15 @@
         <v>11</v>
       </c>
       <c r="E18" s="98" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F18" s="99"/>
       <c r="G18" s="98" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H18" s="99"/>
       <c r="I18" s="98" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J18" s="100"/>
       <c r="K18" s="100"/>
@@ -19085,15 +19031,15 @@
         <v>12</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F19" s="58"/>
       <c r="G19" s="101" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H19" s="102"/>
       <c r="I19" s="101" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J19" s="103"/>
       <c r="K19" s="103"/>
@@ -19124,7 +19070,7 @@
       </c>
       <c r="H20" s="102"/>
       <c r="I20" s="101" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J20" s="103"/>
       <c r="K20" s="103"/>
@@ -19552,13 +19498,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P1" s="19">
         <v>41795</v>
@@ -19645,7 +19591,7 @@
       <c r="K6" s="109"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -19679,7 +19625,7 @@
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="115" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D8" s="115"/>
       <c r="E8" s="113" t="s">
@@ -19711,7 +19657,7 @@
       </c>
       <c r="F9" s="114"/>
       <c r="G9" s="111" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H9" s="110"/>
       <c r="I9" s="110"/>
@@ -19727,15 +19673,15 @@
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="115" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D10" s="115"/>
       <c r="E10" s="113" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F10" s="114"/>
       <c r="G10" s="110" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H10" s="110"/>
       <c r="I10" s="110"/>
@@ -19751,15 +19697,15 @@
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="115" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D11" s="115"/>
       <c r="E11" s="113" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F11" s="114"/>
       <c r="G11" s="110" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H11" s="110"/>
       <c r="I11" s="110"/>
@@ -19775,15 +19721,15 @@
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="115" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D12" s="115"/>
       <c r="E12" s="113" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F12" s="114"/>
       <c r="G12" s="110" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H12" s="110"/>
       <c r="I12" s="110"/>
@@ -19827,7 +19773,7 @@
       <c r="K14" s="108"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -20364,13 +20310,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P1" s="19">
         <v>41795</v>
@@ -20459,10 +20405,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
@@ -21116,13 +21062,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N1" s="52" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P1" s="19">
         <v>41795</v>
@@ -21211,7 +21157,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>46</v>
@@ -21868,13 +21814,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N1" s="51" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P1" s="19">
         <v>41795</v>
@@ -21963,10 +21909,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26"/>
